--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA175"/>
+  <dimension ref="A1:AA176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15219,16 +15222,16 @@
         <v>184</v>
       </c>
       <c r="B173">
-        <v>16992</v>
+        <v>16995</v>
       </c>
       <c r="C173">
-        <v>21055</v>
+        <v>21058</v>
       </c>
       <c r="D173">
-        <v>65217</v>
+        <v>65216</v>
       </c>
       <c r="E173">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="F173">
         <v>71275</v>
@@ -15243,13 +15246,13 @@
         <v>21043</v>
       </c>
       <c r="J173">
-        <v>-6637</v>
+        <v>-6634</v>
       </c>
       <c r="K173">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="L173">
-        <v>17549</v>
+        <v>17546</v>
       </c>
       <c r="M173">
         <v>8217</v>
@@ -15302,16 +15305,16 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>12147</v>
+        <v>12148</v>
       </c>
       <c r="C174">
-        <v>19255</v>
+        <v>19256</v>
       </c>
       <c r="D174">
-        <v>67348</v>
+        <v>67343</v>
       </c>
       <c r="E174">
-        <v>48093</v>
+        <v>48087</v>
       </c>
       <c r="F174">
         <v>62476</v>
@@ -15326,13 +15329,13 @@
         <v>25449</v>
       </c>
       <c r="J174">
-        <v>-5771</v>
+        <v>-5770</v>
       </c>
       <c r="K174">
-        <v>10993</v>
+        <v>10988</v>
       </c>
       <c r="L174">
-        <v>16764</v>
+        <v>16759</v>
       </c>
       <c r="M174">
         <v>8187</v>
@@ -15368,7 +15371,7 @@
         <v>2599</v>
       </c>
       <c r="X174">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="Y174">
         <v>-7107</v>
@@ -15385,16 +15388,16 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>13281</v>
+        <v>13283</v>
       </c>
       <c r="C175">
-        <v>20141</v>
+        <v>20143</v>
       </c>
       <c r="D175">
-        <v>63585</v>
+        <v>63581</v>
       </c>
       <c r="E175">
-        <v>43445</v>
+        <v>43438</v>
       </c>
       <c r="F175">
         <v>59032</v>
@@ -15409,13 +15412,13 @@
         <v>20790</v>
       </c>
       <c r="J175">
-        <v>-5292</v>
+        <v>-5290</v>
       </c>
       <c r="K175">
-        <v>11219</v>
+        <v>11214</v>
       </c>
       <c r="L175">
-        <v>16510</v>
+        <v>16504</v>
       </c>
       <c r="M175">
         <v>8165</v>
@@ -15461,6 +15464,89 @@
       </c>
       <c r="AA175">
         <v>63415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>13180</v>
+      </c>
+      <c r="C176">
+        <v>20505</v>
+      </c>
+      <c r="D176">
+        <v>61029</v>
+      </c>
+      <c r="E176">
+        <v>40524</v>
+      </c>
+      <c r="F176">
+        <v>56351</v>
+      </c>
+      <c r="G176">
+        <v>15767</v>
+      </c>
+      <c r="H176">
+        <v>35065</v>
+      </c>
+      <c r="I176">
+        <v>19298</v>
+      </c>
+      <c r="J176">
+        <v>-4407</v>
+      </c>
+      <c r="K176">
+        <v>11324</v>
+      </c>
+      <c r="L176">
+        <v>15731</v>
+      </c>
+      <c r="M176">
+        <v>8301</v>
+      </c>
+      <c r="N176">
+        <v>8630</v>
+      </c>
+      <c r="O176">
+        <v>329</v>
+      </c>
+      <c r="P176">
+        <v>164</v>
+      </c>
+      <c r="Q176">
+        <v>1320</v>
+      </c>
+      <c r="R176">
+        <v>1156</v>
+      </c>
+      <c r="S176">
+        <v>815</v>
+      </c>
+      <c r="T176">
+        <v>2126</v>
+      </c>
+      <c r="U176">
+        <v>1312</v>
+      </c>
+      <c r="V176">
+        <v>-135</v>
+      </c>
+      <c r="W176">
+        <v>2563</v>
+      </c>
+      <c r="X176">
+        <v>2698</v>
+      </c>
+      <c r="Y176">
+        <v>-7325</v>
+      </c>
+      <c r="Z176">
+        <v>56758</v>
+      </c>
+      <c r="AA176">
+        <v>64083</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA176"/>
+  <dimension ref="A1:AA177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15549,6 +15552,35 @@
         <v>64083</v>
       </c>
     </row>
+    <row r="177" spans="1:27">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>13680</v>
+      </c>
+      <c r="C177">
+        <v>19962</v>
+      </c>
+      <c r="D177">
+        <v>59582</v>
+      </c>
+      <c r="E177">
+        <v>39620</v>
+      </c>
+      <c r="F177">
+        <v>56804</v>
+      </c>
+      <c r="Y177">
+        <v>-6283</v>
+      </c>
+      <c r="Z177">
+        <v>60403</v>
+      </c>
+      <c r="AA177">
+        <v>66686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -15308,19 +15308,19 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>12148</v>
+        <v>12071</v>
       </c>
       <c r="C174">
-        <v>19256</v>
+        <v>19129</v>
       </c>
       <c r="D174">
-        <v>67343</v>
+        <v>67225</v>
       </c>
       <c r="E174">
-        <v>48087</v>
+        <v>48096</v>
       </c>
       <c r="F174">
-        <v>62476</v>
+        <v>62522</v>
       </c>
       <c r="G174">
         <v>16548</v>
@@ -15332,16 +15332,16 @@
         <v>25449</v>
       </c>
       <c r="J174">
-        <v>-5770</v>
+        <v>-5888</v>
       </c>
       <c r="K174">
-        <v>10988</v>
+        <v>10870</v>
       </c>
       <c r="L174">
-        <v>16759</v>
+        <v>16758</v>
       </c>
       <c r="M174">
-        <v>8187</v>
+        <v>8186</v>
       </c>
       <c r="N174">
         <v>8476</v>
@@ -15359,28 +15359,28 @@
         <v>992</v>
       </c>
       <c r="S174">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="T174">
         <v>2227</v>
       </c>
       <c r="U174">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="V174">
-        <v>-798</v>
+        <v>-796</v>
       </c>
       <c r="W174">
         <v>2599</v>
       </c>
       <c r="X174">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="Y174">
-        <v>-7107</v>
+        <v>-7057</v>
       </c>
       <c r="Z174">
-        <v>57233</v>
+        <v>57283</v>
       </c>
       <c r="AA174">
         <v>64340</v>
@@ -15391,19 +15391,19 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>13283</v>
+        <v>13256</v>
       </c>
       <c r="C175">
-        <v>20143</v>
+        <v>20016</v>
       </c>
       <c r="D175">
-        <v>63581</v>
+        <v>63462</v>
       </c>
       <c r="E175">
-        <v>43438</v>
+        <v>43447</v>
       </c>
       <c r="F175">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="G175">
         <v>16887</v>
@@ -15415,16 +15415,16 @@
         <v>20790</v>
       </c>
       <c r="J175">
-        <v>-5290</v>
+        <v>-5407</v>
       </c>
       <c r="K175">
-        <v>11214</v>
+        <v>11096</v>
       </c>
       <c r="L175">
         <v>16504</v>
       </c>
       <c r="M175">
-        <v>8165</v>
+        <v>8164</v>
       </c>
       <c r="N175">
         <v>8469</v>
@@ -15442,28 +15442,28 @@
         <v>1239</v>
       </c>
       <c r="S175">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="T175">
         <v>2083</v>
       </c>
       <c r="U175">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="V175">
-        <v>-470</v>
+        <v>-468</v>
       </c>
       <c r="W175">
         <v>2854</v>
       </c>
       <c r="X175">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="Y175">
-        <v>-6860</v>
+        <v>-6760</v>
       </c>
       <c r="Z175">
-        <v>56555</v>
+        <v>56655</v>
       </c>
       <c r="AA175">
         <v>63415</v>
@@ -15474,19 +15474,19 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>13180</v>
+        <v>13129</v>
       </c>
       <c r="C176">
-        <v>20505</v>
+        <v>20354</v>
       </c>
       <c r="D176">
-        <v>61029</v>
+        <v>60903</v>
       </c>
       <c r="E176">
-        <v>40524</v>
+        <v>40549</v>
       </c>
       <c r="F176">
-        <v>56351</v>
+        <v>56397</v>
       </c>
       <c r="G176">
         <v>15767</v>
@@ -15498,13 +15498,13 @@
         <v>19298</v>
       </c>
       <c r="J176">
-        <v>-4407</v>
+        <v>-4545</v>
       </c>
       <c r="K176">
-        <v>11324</v>
+        <v>11202</v>
       </c>
       <c r="L176">
-        <v>15731</v>
+        <v>15746</v>
       </c>
       <c r="M176">
         <v>8301</v>
@@ -15525,28 +15525,28 @@
         <v>1156</v>
       </c>
       <c r="S176">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="T176">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="U176">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="V176">
-        <v>-135</v>
+        <v>-133</v>
       </c>
       <c r="W176">
         <v>2563</v>
       </c>
       <c r="X176">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="Y176">
-        <v>-7325</v>
+        <v>-7225</v>
       </c>
       <c r="Z176">
-        <v>56758</v>
+        <v>56858</v>
       </c>
       <c r="AA176">
         <v>64083</v>
@@ -15557,25 +15557,79 @@
         <v>188</v>
       </c>
       <c r="B177">
-        <v>13680</v>
+        <v>13635</v>
       </c>
       <c r="C177">
-        <v>19962</v>
+        <v>19817</v>
       </c>
       <c r="D177">
-        <v>59582</v>
+        <v>59465</v>
       </c>
       <c r="E177">
-        <v>39620</v>
+        <v>39648</v>
       </c>
       <c r="F177">
-        <v>56804</v>
+        <v>56850</v>
+      </c>
+      <c r="G177">
+        <v>14674</v>
+      </c>
+      <c r="H177">
+        <v>32945</v>
+      </c>
+      <c r="I177">
+        <v>18271</v>
+      </c>
+      <c r="J177">
+        <v>-3989</v>
+      </c>
+      <c r="K177">
+        <v>11809</v>
+      </c>
+      <c r="L177">
+        <v>15798</v>
+      </c>
+      <c r="M177">
+        <v>8308</v>
+      </c>
+      <c r="N177">
+        <v>8569</v>
+      </c>
+      <c r="O177">
+        <v>261</v>
+      </c>
+      <c r="P177">
+        <v>40</v>
+      </c>
+      <c r="Q177">
+        <v>1332</v>
+      </c>
+      <c r="R177">
+        <v>1291</v>
+      </c>
+      <c r="S177">
+        <v>974</v>
+      </c>
+      <c r="T177">
+        <v>2229</v>
+      </c>
+      <c r="U177">
+        <v>1255</v>
+      </c>
+      <c r="V177">
+        <v>-189</v>
+      </c>
+      <c r="W177">
+        <v>2581</v>
+      </c>
+      <c r="X177">
+        <v>2770</v>
       </c>
       <c r="Y177">
-        <v>-6283</v>
+        <v>-6183</v>
       </c>
       <c r="Z177">
-        <v>60403</v>
+        <v>60503</v>
       </c>
       <c r="AA177">
         <v>66686</v>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA177"/>
+  <dimension ref="A1:AA178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15635,6 +15638,35 @@
         <v>66686</v>
       </c>
     </row>
+    <row r="178" spans="1:27">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>13924</v>
+      </c>
+      <c r="C178">
+        <v>19621</v>
+      </c>
+      <c r="D178">
+        <v>58826</v>
+      </c>
+      <c r="E178">
+        <v>39205</v>
+      </c>
+      <c r="F178">
+        <v>59801</v>
+      </c>
+      <c r="Y178">
+        <v>-5698</v>
+      </c>
+      <c r="Z178">
+        <v>64849</v>
+      </c>
+      <c r="AA178">
+        <v>70547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -15394,19 +15394,19 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>13256</v>
+        <v>13260</v>
       </c>
       <c r="C175">
-        <v>20016</v>
+        <v>20020</v>
       </c>
       <c r="D175">
-        <v>63462</v>
+        <v>63497</v>
       </c>
       <c r="E175">
-        <v>43447</v>
+        <v>43477</v>
       </c>
       <c r="F175">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="G175">
         <v>16887</v>
@@ -15418,19 +15418,19 @@
         <v>20790</v>
       </c>
       <c r="J175">
-        <v>-5407</v>
+        <v>-5404</v>
       </c>
       <c r="K175">
-        <v>11096</v>
+        <v>11133</v>
       </c>
       <c r="L175">
-        <v>16504</v>
+        <v>16537</v>
       </c>
       <c r="M175">
-        <v>8164</v>
+        <v>8162</v>
       </c>
       <c r="N175">
-        <v>8469</v>
+        <v>8466</v>
       </c>
       <c r="O175">
         <v>304</v>
@@ -15454,13 +15454,13 @@
         <v>1287</v>
       </c>
       <c r="V175">
-        <v>-468</v>
+        <v>-466</v>
       </c>
       <c r="W175">
         <v>2854</v>
       </c>
       <c r="X175">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="Y175">
         <v>-6760</v>
@@ -15477,19 +15477,19 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>13129</v>
+        <v>13124</v>
       </c>
       <c r="C176">
-        <v>20354</v>
+        <v>20349</v>
       </c>
       <c r="D176">
-        <v>60903</v>
+        <v>60933</v>
       </c>
       <c r="E176">
-        <v>40549</v>
+        <v>40584</v>
       </c>
       <c r="F176">
-        <v>56397</v>
+        <v>56437</v>
       </c>
       <c r="G176">
         <v>15767</v>
@@ -15501,19 +15501,19 @@
         <v>19298</v>
       </c>
       <c r="J176">
-        <v>-4545</v>
+        <v>-4550</v>
       </c>
       <c r="K176">
-        <v>11202</v>
+        <v>11234</v>
       </c>
       <c r="L176">
-        <v>15746</v>
+        <v>15784</v>
       </c>
       <c r="M176">
-        <v>8301</v>
+        <v>8298</v>
       </c>
       <c r="N176">
-        <v>8630</v>
+        <v>8627</v>
       </c>
       <c r="O176">
         <v>329</v>
@@ -15537,13 +15537,13 @@
         <v>1322</v>
       </c>
       <c r="V176">
-        <v>-133</v>
+        <v>-130</v>
       </c>
       <c r="W176">
         <v>2563</v>
       </c>
       <c r="X176">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="Y176">
         <v>-7225</v>
@@ -15560,19 +15560,19 @@
         <v>188</v>
       </c>
       <c r="B177">
-        <v>13635</v>
+        <v>13633</v>
       </c>
       <c r="C177">
-        <v>19817</v>
+        <v>19816</v>
       </c>
       <c r="D177">
-        <v>59465</v>
+        <v>59495</v>
       </c>
       <c r="E177">
-        <v>39648</v>
+        <v>39679</v>
       </c>
       <c r="F177">
-        <v>56850</v>
+        <v>56890</v>
       </c>
       <c r="G177">
         <v>14674</v>
@@ -15584,19 +15584,19 @@
         <v>18271</v>
       </c>
       <c r="J177">
-        <v>-3989</v>
+        <v>-3991</v>
       </c>
       <c r="K177">
-        <v>11809</v>
+        <v>11841</v>
       </c>
       <c r="L177">
-        <v>15798</v>
+        <v>15833</v>
       </c>
       <c r="M177">
-        <v>8308</v>
+        <v>8306</v>
       </c>
       <c r="N177">
-        <v>8569</v>
+        <v>8567</v>
       </c>
       <c r="O177">
         <v>261</v>
@@ -15620,13 +15620,13 @@
         <v>1255</v>
       </c>
       <c r="V177">
-        <v>-189</v>
+        <v>-186</v>
       </c>
       <c r="W177">
         <v>2581</v>
       </c>
       <c r="X177">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="Y177">
         <v>-6183</v>
@@ -15643,19 +15643,73 @@
         <v>189</v>
       </c>
       <c r="B178">
-        <v>13924</v>
+        <v>13918</v>
       </c>
       <c r="C178">
-        <v>19621</v>
+        <v>19616</v>
       </c>
       <c r="D178">
-        <v>58826</v>
+        <v>58820</v>
       </c>
       <c r="E178">
         <v>39205</v>
       </c>
       <c r="F178">
         <v>59801</v>
+      </c>
+      <c r="G178">
+        <v>13892</v>
+      </c>
+      <c r="H178">
+        <v>31675</v>
+      </c>
+      <c r="I178">
+        <v>17783</v>
+      </c>
+      <c r="J178">
+        <v>-3645</v>
+      </c>
+      <c r="K178">
+        <v>12136</v>
+      </c>
+      <c r="L178">
+        <v>15781</v>
+      </c>
+      <c r="M178">
+        <v>8507</v>
+      </c>
+      <c r="N178">
+        <v>8831</v>
+      </c>
+      <c r="O178">
+        <v>324</v>
+      </c>
+      <c r="P178">
+        <v>43</v>
+      </c>
+      <c r="Q178">
+        <v>1508</v>
+      </c>
+      <c r="R178">
+        <v>1465</v>
+      </c>
+      <c r="S178">
+        <v>1063</v>
+      </c>
+      <c r="T178">
+        <v>2109</v>
+      </c>
+      <c r="U178">
+        <v>1046</v>
+      </c>
+      <c r="V178">
+        <v>-245</v>
+      </c>
+      <c r="W178">
+        <v>2561</v>
+      </c>
+      <c r="X178">
+        <v>2806</v>
       </c>
       <c r="Y178">
         <v>-5698</v>

--- a/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA178"/>
+  <dimension ref="A1:AA179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15721,6 +15724,35 @@
         <v>70547</v>
       </c>
     </row>
+    <row r="179" spans="1:27">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179">
+        <v>14354</v>
+      </c>
+      <c r="C179">
+        <v>17640</v>
+      </c>
+      <c r="D179">
+        <v>56018</v>
+      </c>
+      <c r="E179">
+        <v>38378</v>
+      </c>
+      <c r="F179">
+        <v>59898</v>
+      </c>
+      <c r="Y179">
+        <v>-3286</v>
+      </c>
+      <c r="Z179">
+        <v>67425</v>
+      </c>
+      <c r="AA179">
+        <v>70711</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
